--- a/レゾルバ.xlsx
+++ b/レゾルバ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9004054911\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9004054911\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DCC0B1-1B74-4A54-AF13-296C1E04972B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F78642-CA1D-4126-AF78-603BD7E63BE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="0" windowWidth="26160" windowHeight="15135" xr2:uid="{BC96B0E0-D315-4919-A699-D4C63F69D372}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC96B0E0-D315-4919-A699-D4C63F69D372}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7521,7 +7521,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t>104</a:t>
+              <a:t>224</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
           </a:p>
@@ -7722,7 +7722,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t>104</a:t>
+              <a:t>224</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
           </a:p>
@@ -8482,7 +8482,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t>104</a:t>
+              <a:t>224</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
           </a:p>

--- a/レゾルバ.xlsx
+++ b/レゾルバ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9004054911\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F78642-CA1D-4126-AF78-603BD7E63BE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D4BE77-21BE-4547-9BD0-C97DC20934D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC96B0E0-D315-4919-A699-D4C63F69D372}"/>
+    <workbookView xWindow="7305" yWindow="1095" windowWidth="26160" windowHeight="15135" xr2:uid="{BC96B0E0-D315-4919-A699-D4C63F69D372}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,6 @@
   </si>
   <si>
     <t>Vr1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C+</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -123,6 +119,10 @@
     <t>Ow</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +156,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,18 +183,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -291,16 +297,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="mediumDashed">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="mediumDashed">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="mediumDashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -308,9 +312,18 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="mediumDashed">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -318,55 +331,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="mediumDashed">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -378,13 +343,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="mediumDashed">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -393,7 +367,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="mediumDashed">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -402,16 +376,51 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="mediumDashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -426,22 +435,18 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -452,14 +457,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -468,103 +470,103 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,23 +590,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="479" name="正方形/長方形 478">
+        <xdr:cNvPr id="181" name="正方形/長方形 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABC54BD-3DBE-4DB1-AD17-4A9762312D65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC337231-1D65-451A-9EAF-3508C2AA6CDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -612,8 +614,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="2962275" y="1228725"/>
-          <a:ext cx="647700" cy="152400"/>
+          <a:off x="1832611" y="1834515"/>
+          <a:ext cx="609600" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -658,23 +660,163 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>75536</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>130627</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="正方形/長方形 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AAE2711-A9D8-47DE-A5FC-8DFDB6EE8BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="2114550"/>
+          <a:ext cx="2181225" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>223157</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>59188</xdr:rowOff>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>207645</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="正方形/長方形 136">
+        <xdr:cNvPr id="478" name="正方形/長方形 477">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875B86DB-FEC1-4CFF-8097-DEE50854B9F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E662B5AC-8AD4-49B6-A92A-5CCDDE3DE219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438651" y="1019176"/>
+          <a:ext cx="571500" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114303</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160022</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="479" name="正方形/長方形 478">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABC54BD-3DBE-4DB1-AD17-4A9762312D65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -682,8 +824,78 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="4471316" y="878347"/>
-          <a:ext cx="1071561" cy="147621"/>
+          <a:off x="3547113" y="1263015"/>
+          <a:ext cx="609600" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>87635</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133354</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC18DB8-58BC-47D2-9948-597D661372FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2103599" y="979644"/>
+          <a:ext cx="1157292" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -729,31 +941,101 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>76203</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>109533</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209553</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>128590</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166685</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="正方形/長方形 65">
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC18DB8-58BC-47D2-9948-597D661372FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF690718-3AAA-4B27-BFA6-758A5AB57A7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="-438151" y="3481387"/>
-          <a:ext cx="1733557" cy="133350"/>
+        <a:xfrm>
+          <a:off x="428625" y="1549716"/>
+          <a:ext cx="1152525" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>164763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDEDD688-4205-446C-B548-7968C8913158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="409574" y="404794"/>
+          <a:ext cx="2295525" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -799,40 +1081,53 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>169544</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="正方形/長方形 139">
+        <xdr:cNvPr id="116" name="正方形/長方形 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FAFBECA-D4B4-4D4A-8733-A722FE60F65A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240990A1-B203-423B-876D-EB40C9189CA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="971550" y="2066925"/>
-          <a:ext cx="1647825" cy="142875"/>
+        <a:xfrm rot="16200000">
+          <a:off x="422907" y="1558287"/>
+          <a:ext cx="1162056" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -868,32 +1163,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63816</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>113672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>159391</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66">
+        <xdr:cNvPr id="133" name="正方形/長方形 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF690718-3AAA-4B27-BFA6-758A5AB57A7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A107BCB9-6F45-47BA-84C8-F2A57900EB4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1000125" y="3778566"/>
-          <a:ext cx="1152525" cy="155259"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3286124" y="399422"/>
+          <a:ext cx="2200275" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -939,306 +1234,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>80945</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="正方形/長方形 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDEDD688-4205-446C-B548-7968C8913158}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="371475" y="2652695"/>
-          <a:ext cx="2343150" cy="138130"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66671</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="正方形/長方形 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D8FC2F-C593-4AF6-B45B-5A00D4404518}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3862388" y="1495421"/>
-          <a:ext cx="595312" cy="152403"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95261</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142869</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190505</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>209552</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="正方形/長方形 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240990A1-B203-423B-876D-EB40C9189CA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="966791" y="3843339"/>
-          <a:ext cx="1209683" cy="95244"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="tx1"/>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-                <a:alpha val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="tx1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="0" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>64142</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="正方形/長方形 132">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A107BCB9-6F45-47BA-84C8-F2A57900EB4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3343274" y="349892"/>
-          <a:ext cx="2143126" cy="145407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>59030</xdr:colOff>
+      <xdr:colOff>59031</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>231484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228602</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228603</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>61911</xdr:rowOff>
     </xdr:to>
@@ -1255,7 +1257,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="800102" y="633412"/>
+          <a:off x="228603" y="633412"/>
           <a:ext cx="401927" cy="169572"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -1439,14 +1441,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>58343</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>58344</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>232171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228602</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228603</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
@@ -1463,7 +1465,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="1943102" y="633412"/>
+          <a:off x="1371603" y="633412"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -1640,14 +1642,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57153</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>227411</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>227412</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>58343</xdr:rowOff>
     </xdr:to>
@@ -1664,7 +1666,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="1941911" y="1201342"/>
+          <a:off x="1370412" y="1201342"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -1841,13 +1843,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>226722</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>59028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
@@ -1865,7 +1867,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1655472" y="916278"/>
+          <a:off x="1083972" y="916278"/>
           <a:ext cx="401927" cy="169572"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -2049,13 +2051,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>227409</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>58341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
@@ -2073,7 +2075,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1084659" y="915591"/>
+          <a:off x="513159" y="915591"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -2250,14 +2252,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57153</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>226724</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>226725</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>59027</xdr:rowOff>
     </xdr:to>
@@ -2274,7 +2276,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="798224" y="1202028"/>
+          <a:off x="226725" y="1202028"/>
           <a:ext cx="401927" cy="169572"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -2459,15 +2461,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>57153</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>226725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>226725</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57152</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>59027</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2481,8 +2483,8 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm rot="16200000">
-          <a:off x="2512725" y="630528"/>
+        <a:xfrm>
+          <a:off x="2798475" y="916278"/>
           <a:ext cx="401927" cy="169572"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -2867,15 +2869,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>227411</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>58342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>57153</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2891,7 +2893,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3370661" y="1487092"/>
+          <a:off x="3942161" y="915592"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -3068,16 +3070,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>58343</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>227408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>58342</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>227409</xdr:rowOff>
+      <xdr:colOff>228602</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3091,8 +3093,8 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4514850" y="1485900"/>
+        <a:xfrm rot="16200000">
+          <a:off x="4800602" y="628649"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -3269,13 +3271,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>147632</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>214293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>138108</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>80947</xdr:rowOff>
@@ -3292,8 +3294,8 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3862382" y="1071543"/>
+        <a:xfrm>
+          <a:off x="4433882" y="1071543"/>
           <a:ext cx="561976" cy="438154"/>
           <a:chOff x="5340648" y="3010817"/>
           <a:chExt cx="315041" cy="253411"/>
@@ -3366,10 +3368,14 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="l"/>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>B  C  E</a:t>
+              </a:r>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
@@ -3539,16 +3545,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>214311</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>157164</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>204786</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>80965</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>147640</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>138115</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3562,8 +3568,8 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm rot="16200000">
-          <a:off x="438150" y="1647825"/>
+        <a:xfrm rot="5400000">
+          <a:off x="2143125" y="1066800"/>
           <a:ext cx="561976" cy="438154"/>
           <a:chOff x="5340648" y="3010817"/>
           <a:chExt cx="315041" cy="253411"/>
@@ -3636,10 +3642,14 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="l"/>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>B  C  E</a:t>
+              </a:r>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
@@ -3809,16 +3819,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>160019</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3833,8 +3843,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524374" y="2066925"/>
-          <a:ext cx="962025" cy="142875"/>
+          <a:off x="5095875" y="2114550"/>
+          <a:ext cx="390524" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3880,22 +3890,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158111</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="478" name="正方形/長方形 477">
+        <xdr:cNvPr id="480" name="正方形/長方形 479">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E662B5AC-8AD4-49B6-A92A-5CCDDE3DE219}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63682DD6-90BB-4FAE-B76A-DFDFB3373C93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3903,8 +3913,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209926" y="914401"/>
-          <a:ext cx="571500" cy="152400"/>
+          <a:off x="3371850" y="1541142"/>
+          <a:ext cx="1047750" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3949,86 +3959,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="480" name="正方形/長方形 479">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63682DD6-90BB-4FAE-B76A-DFDFB3373C93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2809875" y="1495425"/>
-          <a:ext cx="552450" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>160019</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4043,8 +3983,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2819399" y="2066925"/>
-          <a:ext cx="1514475" cy="142875"/>
+          <a:off x="3400424" y="2114550"/>
+          <a:ext cx="1495425" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4291,13 +4231,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>228602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>236247</xdr:colOff>
+      <xdr:colOff>226722</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>59029</xdr:rowOff>
     </xdr:to>
@@ -4314,7 +4254,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="4236747" y="2916530"/>
+          <a:off x="4227222" y="2916530"/>
           <a:ext cx="401927" cy="169572"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -5448,13 +5388,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>237530</xdr:colOff>
+      <xdr:colOff>228005</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>57746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47032</xdr:colOff>
+      <xdr:colOff>37507</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>228005</xdr:rowOff>
     </xdr:to>
@@ -5471,7 +5411,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1094780" y="3200996"/>
+          <a:off x="1085255" y="3200996"/>
           <a:ext cx="381002" cy="170259"/>
           <a:chOff x="3948111" y="5053012"/>
           <a:chExt cx="381002" cy="170259"/>
@@ -5718,13 +5658,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>49504</xdr:colOff>
+      <xdr:colOff>59029</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>226722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
@@ -5741,7 +5681,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="790576" y="2914650"/>
+          <a:off x="800101" y="2914650"/>
           <a:ext cx="401927" cy="169572"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -5926,13 +5866,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>67866</xdr:colOff>
+      <xdr:colOff>58341</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>217884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
@@ -5949,7 +5889,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="238125" y="2905125"/>
+          <a:off x="228600" y="2905125"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -6127,13 +6067,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>48818</xdr:colOff>
+      <xdr:colOff>58343</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>227408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>219077</xdr:colOff>
+      <xdr:colOff>228602</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -6150,7 +6090,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="790577" y="3486149"/>
+          <a:off x="800102" y="3486149"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -6529,13 +6469,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>57152</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>236936</xdr:colOff>
+      <xdr:colOff>227411</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>58342</xdr:rowOff>
     </xdr:to>
@@ -6552,7 +6492,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="4237436" y="3487341"/>
+          <a:off x="4227911" y="3487341"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -6732,13 +6672,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>118111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6753,8 +6693,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1000125" y="3771901"/>
-          <a:ext cx="3429000" cy="161924"/>
+          <a:off x="1000125" y="3832861"/>
+          <a:ext cx="3429000" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6800,15 +6740,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>169544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6823,8 +6763,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3943350" y="3200400"/>
-          <a:ext cx="409575" cy="171450"/>
+          <a:off x="3933825" y="3267075"/>
+          <a:ext cx="409575" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7071,15 +7011,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>160019</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7094,8 +7034,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2228850" y="3200400"/>
-          <a:ext cx="409575" cy="171450"/>
+          <a:off x="2219325" y="3257550"/>
+          <a:ext cx="409575" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7143,13 +7083,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>169544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7164,8 +7104,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495300" y="3200400"/>
-          <a:ext cx="409575" cy="171450"/>
+          <a:off x="495300" y="3267075"/>
+          <a:ext cx="409575" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7211,15 +7151,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
+      <xdr:colOff>114305</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>190504</xdr:colOff>
+      <xdr:colOff>160024</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>152407</xdr:rowOff>
+      <xdr:rowOff>114307</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7234,8 +7174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="3324224" y="3857626"/>
-          <a:ext cx="1066808" cy="95253"/>
+          <a:off x="3318511" y="3844293"/>
+          <a:ext cx="1066808" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7298,13 +7238,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>114302</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>219074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>219077</xdr:colOff>
+      <xdr:colOff>160021</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
@@ -7321,8 +7261,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="1652589" y="4348162"/>
-          <a:ext cx="981075" cy="152400"/>
+          <a:off x="1646874" y="4401502"/>
+          <a:ext cx="981075" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7368,13 +7308,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
+      <xdr:colOff>114301</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -7391,8 +7331,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="2795588" y="4348163"/>
-          <a:ext cx="981075" cy="152400"/>
+          <a:off x="2789873" y="4401503"/>
+          <a:ext cx="981075" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8242,15 +8182,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>91136</xdr:colOff>
+      <xdr:colOff>112154</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>117979</xdr:rowOff>
+      <xdr:rowOff>138212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>174178</xdr:colOff>
+      <xdr:colOff>157873</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>155117</xdr:rowOff>
+      <xdr:rowOff>175350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8265,8 +8205,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="17792987">
-          <a:off x="1257088" y="3809777"/>
-          <a:ext cx="1180138" cy="83042"/>
+          <a:off x="1259445" y="3848671"/>
+          <a:ext cx="1180138" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8329,15 +8269,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
+      <xdr:colOff>123829</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>247647</xdr:rowOff>
+      <xdr:rowOff>190498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>169548</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8352,8 +8292,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="-985838" y="4738686"/>
-          <a:ext cx="2828928" cy="133349"/>
+          <a:off x="-982025" y="4725352"/>
+          <a:ext cx="2828928" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8401,13 +8341,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>58342</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>236934</xdr:rowOff>
+      <xdr:rowOff>227409</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8422,7 +8362,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1085850" y="6638925"/>
+          <a:off x="1085850" y="6629400"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -8600,15 +8540,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>57157</xdr:colOff>
+      <xdr:colOff>123831</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>228607</xdr:colOff>
+      <xdr:colOff>169550</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8623,8 +8563,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="795344" y="6900863"/>
-          <a:ext cx="409575" cy="171450"/>
+          <a:off x="799153" y="6973253"/>
+          <a:ext cx="409575" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8871,15 +8811,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>61915</xdr:rowOff>
+      <xdr:rowOff>119065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>214315</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>164784</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8894,8 +8834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="6062665"/>
-          <a:ext cx="1281115" cy="157160"/>
+          <a:off x="409575" y="6119815"/>
+          <a:ext cx="1171575" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8941,15 +8881,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
+      <xdr:colOff>114302</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>219077</xdr:colOff>
+      <xdr:colOff>160021</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8964,8 +8904,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="1366839" y="5767388"/>
-          <a:ext cx="1552575" cy="152400"/>
+          <a:off x="1361124" y="5830253"/>
+          <a:ext cx="1552575" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9214,13 +9154,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>160019</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9235,8 +9175,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="504824" y="2628900"/>
-          <a:ext cx="3933826" cy="161925"/>
+          <a:off x="504824" y="2686050"/>
+          <a:ext cx="3933826" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9282,13 +9222,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>160019</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -9305,8 +9245,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="795338" y="4633913"/>
-          <a:ext cx="409575" cy="171450"/>
+          <a:off x="789622" y="4696778"/>
+          <a:ext cx="409575" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9352,13 +9292,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:colOff>114301</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -9375,8 +9315,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="4224338" y="4624388"/>
-          <a:ext cx="409575" cy="171450"/>
+          <a:off x="4218623" y="4687253"/>
+          <a:ext cx="409575" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9422,15 +9362,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
+      <xdr:colOff>204787</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
+      <xdr:colOff>42862</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>223838</xdr:rowOff>
+      <xdr:rowOff>164782</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9445,8 +9385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2795587" y="6624638"/>
-          <a:ext cx="409575" cy="171450"/>
+          <a:off x="2776537" y="6691313"/>
+          <a:ext cx="409575" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9492,15 +9432,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>169544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9515,8 +9455,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3381375" y="6629400"/>
-          <a:ext cx="409575" cy="171450"/>
+          <a:off x="3390900" y="6696075"/>
+          <a:ext cx="371475" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9562,13 +9502,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>57153</xdr:colOff>
+      <xdr:colOff>123828</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>228603</xdr:colOff>
+      <xdr:colOff>169547</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -9585,8 +9525,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="2509840" y="4633913"/>
-          <a:ext cx="409575" cy="171450"/>
+          <a:off x="2513650" y="4696778"/>
+          <a:ext cx="409575" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9632,15 +9572,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
+      <xdr:colOff>123827</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>228602</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>57148</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9655,8 +9595,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="2509839" y="6338888"/>
-          <a:ext cx="409575" cy="171450"/>
+          <a:off x="2471739" y="6357937"/>
+          <a:ext cx="495299" cy="47623"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9702,15 +9642,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9725,8 +9665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2800350" y="6067425"/>
-          <a:ext cx="2838450" cy="142875"/>
+          <a:off x="2695575" y="6124575"/>
+          <a:ext cx="2895600" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9772,13 +9712,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>123827</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>209549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>169546</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
@@ -9795,8 +9735,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="3586163" y="4119561"/>
-          <a:ext cx="3962400" cy="142875"/>
+          <a:off x="3594737" y="4168139"/>
+          <a:ext cx="3962400" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9842,15 +9782,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>111485</xdr:colOff>
+      <xdr:colOff>130632</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>156608</xdr:rowOff>
+      <xdr:rowOff>155197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>177793</xdr:colOff>
+      <xdr:colOff>176351</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>138051</xdr:rowOff>
+      <xdr:rowOff>136640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9864,9 +9804,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16672398">
-          <a:off x="1011167" y="2400176"/>
-          <a:ext cx="3981943" cy="66308"/>
+        <a:xfrm rot="16672768">
+          <a:off x="1020020" y="2409059"/>
+          <a:ext cx="3981943" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9925,13 +9865,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:colOff>114301</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -9948,8 +9888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="1938338" y="6919913"/>
-          <a:ext cx="409575" cy="171450"/>
+          <a:off x="1932623" y="6982778"/>
+          <a:ext cx="409575" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9959,6 +9899,93 @@
             <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>141988</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>187707</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>230648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="正方形/長方形 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CA6D9C-4A59-4155-8842-462C4B551093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18774138">
+          <a:off x="1504959" y="1262150"/>
+          <a:ext cx="748777" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -10292,7 +10319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F49AB7F-3EE7-402F-B6E2-37FBCD122BD4}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -10302,627 +10329,665 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="27"/>
     </row>
     <row r="2" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="7"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="27"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="27"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="11" t="s">
+      <c r="M4" s="32"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="27"/>
+    </row>
+    <row r="5" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="31"/>
+    </row>
+    <row r="6" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="32"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="25"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="27"/>
+    </row>
+    <row r="7" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="27"/>
+    </row>
+    <row r="8" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="32"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="5"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="27"/>
     </row>
-    <row r="5" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="2"/>
+    <row r="9" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="27"/>
     </row>
-    <row r="6" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11" t="s">
-        <v>1</v>
+    <row r="10" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25"/>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="5"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="27"/>
     </row>
-    <row r="7" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
+    <row r="11" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="27"/>
     </row>
-    <row r="8" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11" t="s">
-        <v>2</v>
+    <row r="12" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="25"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="9" t="s">
+        <v>16</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="11" t="s">
+      <c r="G12" s="25"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="25"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="27"/>
+    </row>
+    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="27"/>
+    </row>
+    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="27"/>
+    </row>
+    <row r="15" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="27"/>
+    </row>
+    <row r="16" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="27"/>
+    </row>
+    <row r="17" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="27"/>
+    </row>
+    <row r="18" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="25"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="14"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="26"/>
+      <c r="N18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="26"/>
+      <c r="P18" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="27"/>
     </row>
-    <row r="9" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+    <row r="19" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="27"/>
     </row>
-    <row r="10" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="15" t="s">
+    <row r="20" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="25"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="27"/>
+    </row>
+    <row r="21" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="27"/>
+    </row>
+    <row r="22" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="27"/>
+    </row>
+    <row r="23" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="27"/>
+    </row>
+    <row r="24" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="26"/>
+      <c r="N24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="26"/>
+      <c r="P24" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="27"/>
+    </row>
+    <row r="25" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="25"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="27"/>
+    </row>
+    <row r="26" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="25"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="5"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="27"/>
     </row>
-    <row r="11" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="18"/>
-      <c r="P18" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="5"/>
-    </row>
-    <row r="21" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-    </row>
-    <row r="22" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="5"/>
-    </row>
-    <row r="23" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O24" s="34"/>
-      <c r="P24" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="5"/>
-    </row>
-    <row r="25" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="5"/>
+    <row r="27" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="U27" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/レゾルバ.xlsx
+++ b/レゾルバ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9004054911\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D4BE77-21BE-4547-9BD0-C97DC20934D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93738F36-947D-42A0-BE81-625BAAD2A3D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="1095" windowWidth="26160" windowHeight="15135" xr2:uid="{BC96B0E0-D315-4919-A699-D4C63F69D372}"/>
+    <workbookView xWindow="11550" yWindow="210" windowWidth="26160" windowHeight="15135" xr2:uid="{BC96B0E0-D315-4919-A699-D4C63F69D372}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Vr3</t>
     <phoneticPr fontId="1"/>
@@ -45,10 +45,6 @@
   </si>
   <si>
     <t>Vr1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -123,6 +119,18 @@
     <t>C+</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>C-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V-</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +164,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +204,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -473,16 +487,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -490,9 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -503,34 +508,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -557,17 +538,38 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,16 +592,86 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160021</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="正方形/長方形 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA996199-C8A4-4A57-88CC-B7C640C0E4F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4161474" y="7030403"/>
+          <a:ext cx="523875" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123827</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>169546</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171452</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -614,7 +686,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="1832611" y="1834515"/>
+          <a:off x="2413637" y="6987542"/>
           <a:ext cx="609600" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -661,15 +733,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>160019</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>169544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -684,8 +756,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="990600" y="2114550"/>
-          <a:ext cx="2181225" cy="45719"/>
+          <a:off x="981075" y="7267575"/>
+          <a:ext cx="4610100" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -730,156 +802,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>207645</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="478" name="正方形/長方形 477">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E662B5AC-8AD4-49B6-A92A-5CCDDE3DE219}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4438651" y="1019176"/>
-          <a:ext cx="571500" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114303</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>160022</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="479" name="正方形/長方形 478">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABC54BD-3DBE-4DB1-AD17-4A9762312D65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="3547113" y="1263015"/>
-          <a:ext cx="609600" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>87635</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>138108</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>146212</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>133354</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>210976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -893,9 +825,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="2103599" y="979644"/>
-          <a:ext cx="1157292" cy="45719"/>
+        <a:xfrm>
+          <a:off x="2146462" y="6166007"/>
+          <a:ext cx="539588" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -942,14 +874,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>120966</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>122872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>166685</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168591</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -963,9 +895,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="428625" y="1549716"/>
-          <a:ext cx="1152525" cy="45719"/>
+        <a:xfrm flipV="1">
+          <a:off x="428625" y="6695122"/>
+          <a:ext cx="1714500" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1011,14 +943,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>123823</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>119044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>164763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1034,8 +966,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="409574" y="404794"/>
-          <a:ext cx="2295525" cy="45719"/>
+          <a:off x="409573" y="5548294"/>
+          <a:ext cx="1752602" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1082,13 +1014,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>142869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>169544</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1163,85 +1095,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>113672</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>159391</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="正方形/長方形 132">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A107BCB9-6F45-47BA-84C8-F2A57900EB4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3286124" y="399422"/>
-          <a:ext cx="2200275" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>59031</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>231484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>228603</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>61911</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1257,7 +1119,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="228603" y="633412"/>
+          <a:off x="228603" y="5776912"/>
           <a:ext cx="401927" cy="169572"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -1443,13 +1305,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>58344</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>232171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228603</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1465,7 +1327,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="1371603" y="633412"/>
+          <a:off x="1371603" y="5776912"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -1644,13 +1506,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57153</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>227412</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>58343</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1666,7 +1528,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="1370412" y="1201342"/>
+          <a:off x="1370412" y="6344842"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -1845,13 +1707,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>226722</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>59028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1867,7 +1729,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1083972" y="916278"/>
+          <a:off x="1083972" y="6059778"/>
           <a:ext cx="401927" cy="169572"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -2053,13 +1915,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>227409</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>58341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2075,7 +1937,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="513159" y="915591"/>
+          <a:off x="513159" y="6059091"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -2254,13 +2116,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57153</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>226725</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>59027</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2276,7 +2138,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="226725" y="1202028"/>
+          <a:off x="226725" y="6345528"/>
           <a:ext cx="401927" cy="169572"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -2461,14 +2323,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>226725</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>226726</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>59028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>57153</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2484,7 +2346,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2798475" y="916278"/>
+          <a:off x="2798476" y="6059778"/>
           <a:ext cx="401927" cy="169572"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -2669,15 +2531,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>58347</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>227411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>58342</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>227409</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228606</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57153</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2691,8 +2553,8 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2800350" y="342900"/>
+        <a:xfrm rot="16200000">
+          <a:off x="2514606" y="5772152"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -2869,217 +2731,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>227411</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>58342</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>58343</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>227410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>57153</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="323" name="グループ化 322">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C1DCC0-1F11-4E6D-AAB6-3B467135FCD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3942161" y="915592"/>
-          <a:ext cx="401242" cy="170259"/>
-          <a:chOff x="5273050" y="1838326"/>
-          <a:chExt cx="413376" cy="209549"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="324" name="正方形/長方形 323">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{668EF183-3E3B-4614-8597-79692100B864}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5286375" y="1838326"/>
-            <a:ext cx="390526" cy="209549"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t>223</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="325" name="正方形/長方形 324">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411136D5-3D9C-4E3E-BB09-64BD089C5140}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5273050" y="1839157"/>
-            <a:ext cx="70477" cy="208713"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="326" name="正方形/長方形 325">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54393395-E715-46DC-933D-C0B40EEB724B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5615950" y="1839157"/>
-            <a:ext cx="70476" cy="208713"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>58343</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>227408</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
       <xdr:colOff>228602</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3094,7 +2755,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="4800602" y="628649"/>
+          <a:off x="4229102" y="4629151"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -3271,290 +2932,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>147632</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>214293</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>138108</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80947</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="337" name="グループ化 336">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4367C872-2ABD-4DC3-BC7F-60A8040BAAFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4433882" y="1071543"/>
-          <a:ext cx="561976" cy="438154"/>
-          <a:chOff x="5340648" y="3010817"/>
-          <a:chExt cx="315041" cy="253411"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="338" name="グループ化 337">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C7A97D-B624-4F22-B7B8-51DFE5390D0D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="5340648" y="3010817"/>
-            <a:ext cx="315041" cy="195558"/>
-            <a:chOff x="5286375" y="1787215"/>
-            <a:chExt cx="451560" cy="268895"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="341" name="正方形/長方形 340">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5A94B0-0324-4BC6-8F5C-74DDAFD094F7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5286375" y="1862954"/>
-              <a:ext cx="451560" cy="193156"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>B  C  E</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="342" name="正方形/長方形 341">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C1DFEE-A54A-443A-BE5E-57853A77CC3C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5494554" y="1787215"/>
-              <a:ext cx="36736" cy="74792"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="339" name="正方形/長方形 338">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB96D83-CAEA-4EB8-B586-363ECC9F12A2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="5364403" y="3205938"/>
-            <a:ext cx="26974" cy="58283"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="340" name="正方形/長方形 339">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA6F870-6556-46E4-ADC8-5FD024D544DE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5604964" y="3205909"/>
-            <a:ext cx="26367" cy="58319"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>204786</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>147639</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>71440</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>138115</xdr:rowOff>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76204</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3568,8 +2955,8 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2143125" y="1066800"/>
+        <a:xfrm>
+          <a:off x="2143125" y="6210300"/>
           <a:ext cx="561976" cy="438154"/>
           <a:chOff x="5340648" y="3010817"/>
           <a:chExt cx="315041" cy="253411"/>
@@ -3819,225 +3206,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>160019</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="477" name="正方形/長方形 476">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A172FD-130C-467B-BA40-CEDE86172202}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5095875" y="2114550"/>
-          <a:ext cx="390524" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>112392</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>158111</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="480" name="正方形/長方形 479">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63682DD6-90BB-4FAE-B76A-DFDFB3373C93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3371850" y="1541142"/>
-          <a:ext cx="1047750" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>160019</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="483" name="正方形/長方形 482">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17749490-E601-4153-960C-8E05AABC2969}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3400424" y="2114550"/>
-          <a:ext cx="1495425" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>57153</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>228602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>227412</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>58344</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4053,7 +3230,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="3656412" y="2915843"/>
+          <a:off x="3656412" y="629843"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -4232,13 +3409,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>228602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>226722</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>59029</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4254,7 +3431,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="4227222" y="2916530"/>
+          <a:off x="4227222" y="630530"/>
           <a:ext cx="401927" cy="169572"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -4317,7 +3494,7 @@
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>105</a:t>
+              <a:t>104</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
@@ -4440,13 +3617,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>227409</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4462,7 +3639,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4514849" y="3200400"/>
+          <a:off x="4514849" y="914400"/>
           <a:ext cx="381002" cy="170259"/>
           <a:chOff x="3948111" y="5053012"/>
           <a:chExt cx="381002" cy="170259"/>
@@ -4710,13 +3887,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>228005</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>57746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>37507</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>228005</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4732,7 +3909,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2799755" y="3200996"/>
+          <a:off x="2799755" y="914996"/>
           <a:ext cx="381002" cy="170259"/>
           <a:chOff x="3948111" y="5053012"/>
           <a:chExt cx="381002" cy="170259"/>
@@ -4980,13 +4157,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>59029</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>226722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5002,7 +4179,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="2514601" y="2914650"/>
+          <a:off x="2514601" y="628650"/>
           <a:ext cx="401927" cy="169572"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -5065,7 +4242,7 @@
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>105</a:t>
+              <a:t>104</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
@@ -5188,13 +4365,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>58341</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>227409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5210,7 +4387,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="1943100" y="2914650"/>
+          <a:off x="1943100" y="628650"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -5389,13 +4566,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228005</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>57746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>37507</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>228005</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5411,7 +4588,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1085255" y="3200996"/>
+          <a:off x="1085255" y="914996"/>
           <a:ext cx="381002" cy="170259"/>
           <a:chOff x="3948111" y="5053012"/>
           <a:chExt cx="381002" cy="170259"/>
@@ -5659,13 +4836,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>59029</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>226722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5681,7 +4858,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="800101" y="2914650"/>
+          <a:off x="800101" y="628650"/>
           <a:ext cx="401927" cy="169572"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -5744,7 +4921,7 @@
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>105</a:t>
+              <a:t>104</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
@@ -5867,13 +5044,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>58341</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>217884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5889,7 +5066,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="228600" y="2905125"/>
+          <a:off x="228600" y="619125"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -6068,13 +5245,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>58343</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>227408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228602</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6090,7 +5267,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="800102" y="3486149"/>
+          <a:off x="800102" y="1200149"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -6269,13 +5446,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57153</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>227412</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>58342</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6291,7 +5468,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="2513412" y="3487341"/>
+          <a:off x="2513412" y="1201341"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -6470,13 +5647,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>227411</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>58342</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6492,7 +5669,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="4227911" y="3487341"/>
+          <a:off x="4227911" y="1201341"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -6671,13 +5848,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>118111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6741,13 +5918,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>169544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6811,13 +5988,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>227411</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>58341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57153</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6833,7 +6010,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2227661" y="4916091"/>
+          <a:off x="2227661" y="2630091"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -7012,13 +6189,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>160019</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7082,13 +6259,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>169544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7152,13 +6329,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114305</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>160024</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>114307</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7239,13 +6416,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114302</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>219074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>160021</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7309,13 +6486,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7379,13 +6556,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>227409</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>67866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7401,7 +6578,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1084659" y="4925616"/>
+          <a:off x="1084659" y="2639616"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -7461,7 +6638,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t>224</a:t>
+              <a:t>473</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
           </a:p>
@@ -7580,13 +6757,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>58342</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>227409</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7602,7 +6779,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3943350" y="4914900"/>
+          <a:off x="3943350" y="2628900"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -7662,7 +6839,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t>224</a:t>
+              <a:t>473</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
           </a:p>
@@ -7781,13 +6958,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>58343</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>198834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228602</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7803,7 +6980,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="1371602" y="4600575"/>
+          <a:off x="1371602" y="2314575"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -7982,13 +7159,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>57153</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>227412</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>58342</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8004,7 +7181,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="3656412" y="4630341"/>
+          <a:off x="3656412" y="2344341"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -8183,13 +7360,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>112154</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>138212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>157873</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>175350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8270,13 +7447,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123829</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>190498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>169548</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8340,13 +7517,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>58342</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>227409</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8362,7 +7539,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1085850" y="6629400"/>
+          <a:off x="1085850" y="4343400"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -8422,7 +7599,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t>224</a:t>
+              <a:t>473</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
           </a:p>
@@ -8541,13 +7718,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123831</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>169550</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8611,13 +7788,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57157</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>227416</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>48817</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8633,7 +7810,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="1370416" y="6335316"/>
+          <a:off x="1370416" y="4049316"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -8812,13 +7989,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>119065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>164784</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8882,13 +8059,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114302</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>160021</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8952,13 +8129,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>227410</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>58341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8974,7 +8151,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2227660" y="6630591"/>
+          <a:off x="2227660" y="4344591"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -9153,13 +8330,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>160019</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9223,13 +8400,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160019</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9293,13 +8470,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9362,155 +8539,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>164782</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="正方形/長方形 184">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{112CE85C-B067-4BE6-B86E-377BBF67422E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2776537" y="6691313"/>
-          <a:ext cx="409575" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>169544</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="186" name="正方形/長方形 185">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA83D56-D464-4731-9DF5-DBBF4E240A21}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3390900" y="6696075"/>
-          <a:ext cx="371475" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123828</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>114303</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>169547</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>160022</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9525,8 +8562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="2513650" y="4696778"/>
-          <a:ext cx="409575" cy="45719"/>
+          <a:off x="2446975" y="3029902"/>
+          <a:ext cx="523875" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9573,13 +8610,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123827</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9643,13 +8680,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9676,159 +8713,6 @@
             <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123827</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>169546</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="192" name="正方形/長方形 191">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96996578-EB40-4033-8F97-5026C0DCCE5D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="3594737" y="4168139"/>
-          <a:ext cx="3962400" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>130632</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>155197</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>176351</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>136640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="194" name="正方形/長方形 193">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB17B937-1F6F-4476-9AB0-8A71FA69F492}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16672768">
-          <a:off x="1020020" y="2409059"/>
-          <a:ext cx="3981943" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FF0000"/>
-            </a:gs>
-            <a:gs pos="44000">
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-                <a:alpha val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FF0000"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="0" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -9866,13 +8750,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9934,58 +8818,41 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>141988</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>53371</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>187707</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>230648</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160019</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="正方形/長方形 181">
+        <xdr:cNvPr id="189" name="正方形/長方形 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CA6D9C-4A59-4155-8842-462C4B551093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE87B359-DE9D-40B6-A162-C8B25E9E8AC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="18774138">
-          <a:off x="1504959" y="1262150"/>
-          <a:ext cx="748777" cy="45719"/>
+        <a:xfrm rot="16200000">
+          <a:off x="3075622" y="6992303"/>
+          <a:ext cx="409575" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-                <a:alpha val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="0" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -10017,6 +8884,1189 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>246697</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>115253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="正方形/長方形 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C077311-82A7-4BBB-BE1C-6FC8CC8C7C98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2246947" y="7259003"/>
+          <a:ext cx="991553" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>58342</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>227409</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="193" name="グループ化 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6543A9-6ED2-4B59-8EAD-ED637F7D04B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3943350" y="4343400"/>
+          <a:ext cx="401242" cy="170259"/>
+          <a:chOff x="5273050" y="1838326"/>
+          <a:chExt cx="413376" cy="209549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="195" name="正方形/長方形 194">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF78B91-547E-413E-97CE-48D56FCEFD0D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5286375" y="1838326"/>
+            <a:ext cx="390526" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>223</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="196" name="正方形/長方形 195">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FC0197-FEDC-428A-9764-316B87944FBA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5273050" y="1839157"/>
+            <a:ext cx="70477" cy="208713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="197" name="正方形/長方形 196">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB34F4CD-6DA0-4F5E-9F7F-FB6FF7AE7493}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5615950" y="1839157"/>
+            <a:ext cx="70476" cy="208713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>227410</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>58342</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="199" name="グループ化 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E83726-2361-4903-B3C1-8793379A62F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3656410" y="4630341"/>
+          <a:ext cx="401242" cy="170259"/>
+          <a:chOff x="5273050" y="1838326"/>
+          <a:chExt cx="413376" cy="209549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="200" name="正方形/長方形 199">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD93F3AD-1D22-4F64-BA09-D9ACCF9AF3F1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5286375" y="1838326"/>
+            <a:ext cx="390526" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>103</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="201" name="正方形/長方形 200">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C9955A-6660-4505-B1AC-69E678969070}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5273050" y="1839157"/>
+            <a:ext cx="70477" cy="208713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="202" name="正方形/長方形 201">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3FB6ED-B96F-4CF8-A307-67EE4444B651}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5615950" y="1839157"/>
+            <a:ext cx="70476" cy="208713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="正方形/長方形 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DAAAFFA-FA63-4437-9BC1-E8E6BC173452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="3267075"/>
+          <a:ext cx="2895600" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106127</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>151846</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="正方形/長方形 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DDB130-EA47-4989-BBF5-3465AE21CFE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18869161">
+          <a:off x="2256263" y="4423786"/>
+          <a:ext cx="3174948" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FF0000"/>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+                <a:alpha val="20000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FF0000"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>119066</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>164785</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47622</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="正方形/長方形 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F7F949-2535-4099-AB78-44E3AC9B4463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5037776" y="4349113"/>
+          <a:ext cx="1066799" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>169544</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="211" name="正方形/長方形 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF45C4BE-102C-4412-9E31-640AC61322D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4461511" y="6177914"/>
+          <a:ext cx="2228848" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114303</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160022</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="正方形/長方形 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{873896F0-0B36-4E49-AD8F-DE4C38549983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3047049" y="5792151"/>
+          <a:ext cx="1609728" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160019</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="正方形/長方形 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781D4F85-1351-4D5F-9D9D-E38CD8666B80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1804035" y="5854064"/>
+          <a:ext cx="666750" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="正方形/長方形 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A07D5C-BBDE-4C9F-A0CC-ED406DDA3EDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3085148" y="6401753"/>
+          <a:ext cx="390525" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>59027</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>226722</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="182" name="グループ化 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD28689B-519B-491C-A503-6A4BF29A4805}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4514850" y="4914900"/>
+          <a:ext cx="401927" cy="169572"/>
+          <a:chOff x="5273050" y="1838326"/>
+          <a:chExt cx="413376" cy="209549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="185" name="正方形/長方形 184">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24DA9352-FA68-496F-829F-5B3B7D836FA2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5286375" y="1838326"/>
+            <a:ext cx="390526" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>104</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="186" name="正方形/長方形 185">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4A836E-8E5E-45F7-9751-A865F041AC17}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5273050" y="1839157"/>
+            <a:ext cx="70477" cy="208713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="192" name="正方形/長方形 191">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91A88CC-FDA2-4A0B-91D5-8D38D14EDD54}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5615950" y="1839157"/>
+            <a:ext cx="70476" cy="208713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10329,665 +10379,669 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="27"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="16"/>
     </row>
     <row r="2" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="14"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="32"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="32"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="32"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="32"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="32"/>
+      <c r="M2" s="14"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="32"/>
+      <c r="O2" s="14"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="32"/>
+      <c r="Q2" s="14"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="27"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="27"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="16"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="25"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="32"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="14"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="35"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="14"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="16"/>
+    </row>
+    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="16"/>
+    </row>
+    <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="16"/>
+    </row>
+    <row r="7" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="16"/>
+    </row>
+    <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="16"/>
+    </row>
+    <row r="13" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="16"/>
+    </row>
+    <row r="14" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="16"/>
+    </row>
+    <row r="15" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="16"/>
+    </row>
+    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="15"/>
+      <c r="P16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="16"/>
+    </row>
+    <row r="17" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="16"/>
+    </row>
+    <row r="18" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="14"/>
+      <c r="T18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" s="16"/>
+    </row>
+    <row r="19" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="U19" s="16"/>
+    </row>
+    <row r="20" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="16"/>
+    </row>
+    <row r="21" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="16"/>
+    </row>
+    <row r="22" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="16"/>
+    </row>
+    <row r="23" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="20"/>
+    </row>
+    <row r="24" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="27"/>
-    </row>
-    <row r="5" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="31"/>
-    </row>
-    <row r="6" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="6" t="s">
+      <c r="M24" s="21"/>
+      <c r="N24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="25"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="27"/>
-    </row>
-    <row r="7" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="27"/>
-    </row>
-    <row r="8" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="6" t="s">
+      <c r="O24" s="22"/>
+      <c r="P24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="25"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="27"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="16"/>
     </row>
-    <row r="9" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="27"/>
+    <row r="25" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="16"/>
     </row>
-    <row r="10" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="27"/>
-    </row>
-    <row r="11" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="27"/>
-    </row>
-    <row r="12" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="S12" s="25"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="27"/>
-    </row>
-    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="27"/>
-    </row>
-    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="27"/>
-    </row>
-    <row r="15" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="27"/>
-    </row>
-    <row r="16" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="27"/>
-    </row>
-    <row r="17" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="27"/>
-    </row>
-    <row r="18" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="26"/>
-      <c r="N18" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="27"/>
-    </row>
-    <row r="19" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="27"/>
-    </row>
-    <row r="20" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="27"/>
-    </row>
-    <row r="21" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="27"/>
-    </row>
-    <row r="22" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="27"/>
-    </row>
-    <row r="23" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="27"/>
-    </row>
-    <row r="24" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="26"/>
-      <c r="N24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="27"/>
-    </row>
-    <row r="25" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="25"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="27"/>
-    </row>
-    <row r="26" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="25"/>
+    <row r="26" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="25"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="25"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="25"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="25"/>
+      <c r="M26" s="21"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="25"/>
+      <c r="O26" s="22"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="25"/>
+      <c r="Q26" s="23"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="25"/>
+      <c r="S26" s="14"/>
       <c r="T26" s="4"/>
-      <c r="U26" s="27"/>
+      <c r="U26" s="16"/>
     </row>
     <row r="27" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="U27" s="27"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/レゾルバ.xlsx
+++ b/レゾルバ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9004054911\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93738F36-947D-42A0-BE81-625BAAD2A3D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85565F1C-75DF-4124-AB7B-211496CEFF90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11550" yWindow="210" windowWidth="26160" windowHeight="15135" xr2:uid="{BC96B0E0-D315-4919-A699-D4C63F69D372}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC96B0E0-D315-4919-A699-D4C63F69D372}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -592,6 +592,229 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>213356</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165737</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="283" name="正方形/長方形 282">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7ECA98-CCBE-4569-A3AD-597BDD20989E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3928106" y="5549268"/>
+          <a:ext cx="1672593" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="571" name="正方形/長方形 570">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{249C679D-1916-4F6B-BCC9-3C2EE55FBA2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2737485" y="2063114"/>
+          <a:ext cx="1085851" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114303</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160022</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="570" name="正方形/長方形 569">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B1D48D-74F3-4533-8906-BD826C8B6786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1594488" y="2063115"/>
+          <a:ext cx="1085849" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114302</xdr:colOff>
       <xdr:row>23</xdr:row>
@@ -2531,15 +2754,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>58347</xdr:colOff>
+      <xdr:colOff>58348</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>227411</xdr:rowOff>
+      <xdr:rowOff>227413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>228606</xdr:colOff>
+      <xdr:colOff>228607</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>57153</xdr:rowOff>
+      <xdr:rowOff>57155</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2554,7 +2777,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="2514606" y="5772152"/>
+          <a:off x="2514607" y="5772154"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -2614,7 +2837,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t>471</a:t>
+              <a:t>472</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
           </a:p>
@@ -2732,15 +2955,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>58343</xdr:colOff>
+      <xdr:colOff>228602</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>58344</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>227410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228602</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57152</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2754,8 +2977,8 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm rot="16200000">
-          <a:off x="4229102" y="4629151"/>
+        <a:xfrm>
+          <a:off x="4514852" y="4343401"/>
           <a:ext cx="401242" cy="170259"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -6012,7 +6235,7 @@
         <a:xfrm>
           <a:off x="2227661" y="2630091"/>
           <a:ext cx="401242" cy="170259"/>
-          <a:chOff x="5273050" y="1838326"/>
+          <a:chOff x="5273050" y="1838325"/>
           <a:chExt cx="413376" cy="209549"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -6029,7 +6252,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5286375" y="1838326"/>
+            <a:off x="5286375" y="1838325"/>
             <a:ext cx="390526" cy="209549"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -6070,7 +6293,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t>102</a:t>
+              <a:t>103</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
           </a:p>
@@ -6414,146 +6637,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114302</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>160021</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="570" name="正方形/長方形 569">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B1D48D-74F3-4533-8906-BD826C8B6786}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="1646874" y="4401502"/>
-          <a:ext cx="981075" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="571" name="正方形/長方形 570">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{249C679D-1916-4F6B-BCC9-3C2EE55FBA2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="2789873" y="4401503"/>
-          <a:ext cx="981075" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>227409</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -6638,7 +6721,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t>473</a:t>
+              <a:t>474</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
           </a:p>
@@ -6839,7 +6922,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t>473</a:t>
+              <a:t>474</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
           </a:p>
@@ -7599,7 +7682,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t>473</a:t>
+              <a:t>474</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
           </a:p>
@@ -8211,7 +8294,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t>102</a:t>
+              <a:t>103</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
           </a:p>
@@ -8774,146 +8857,6 @@
         <a:xfrm rot="16200000">
           <a:off x="1932623" y="6982778"/>
           <a:ext cx="409575" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>160019</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="正方形/長方形 188">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE87B359-DE9D-40B6-A162-C8B25E9E8AC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="3075622" y="6992303"/>
-          <a:ext cx="409575" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>246697</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>115253</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>160972</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="191" name="正方形/長方形 190">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C077311-82A7-4BBB-BE1C-6FC8CC8C7C98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2246947" y="7259003"/>
-          <a:ext cx="991553" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9430,89 +9373,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>106127</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1672</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>151846</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>33370</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="正方形/長方形 207">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DDB130-EA47-4989-BBF5-3465AE21CFE6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="18869161">
-          <a:off x="2256263" y="4423786"/>
-          <a:ext cx="3174948" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="FF0000"/>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-                <a:alpha val="20000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="FF0000"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="0" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>119066</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -9653,76 +9513,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114303</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152397</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>160022</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="214" name="正方形/長方形 213">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{873896F0-0B36-4E49-AD8F-DE4C38549983}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="3047049" y="5792151"/>
-          <a:ext cx="1609728" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -9863,16 +9653,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>59029</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>217197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>59027</xdr:colOff>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>226722</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9886,8 +9676,8 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4514850" y="4914900"/>
+        <a:xfrm rot="16200000">
+          <a:off x="4800601" y="4619625"/>
           <a:ext cx="401927" cy="169572"/>
           <a:chOff x="5273050" y="1838326"/>
           <a:chExt cx="413376" cy="209549"/>
@@ -10067,6 +9857,1812 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160019</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="245" name="正方形/長方形 244">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD953A3-6189-4DBD-891B-FA3C71FEF31E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2775584" y="4996813"/>
+          <a:ext cx="1009652" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>5174</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>50893</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>39402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="正方形/長方形 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FF8571-0597-47A7-B089-1F9A58C3E0C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="3508771" y="4068780"/>
+          <a:ext cx="2754025" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FF0000"/>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FF0000"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236934</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>58341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="246" name="グループ化 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F45332A3-E45E-491F-86D0-933E3D55BCDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2808684" y="5487591"/>
+          <a:ext cx="401242" cy="170259"/>
+          <a:chOff x="5273050" y="1838326"/>
+          <a:chExt cx="413376" cy="209549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="247" name="正方形/長方形 246">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B3310E-1F9A-4FAD-8A16-D8C0CA23FF91}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5286375" y="1838326"/>
+            <a:ext cx="390526" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>104</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="248" name="正方形/長方形 247">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6D23F6-B433-4ED7-9AD3-E977A31786A6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5273050" y="1839157"/>
+            <a:ext cx="70477" cy="208713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="249" name="正方形/長方形 248">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC037F4-B550-43BC-B563-FAC08FC4BCF9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5615950" y="1839157"/>
+            <a:ext cx="70476" cy="208713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>39292</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>227409</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="250" name="グループ化 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D08CFD-2A10-4F0D-8376-534DB1A49F8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3352800" y="5486400"/>
+          <a:ext cx="401242" cy="170259"/>
+          <a:chOff x="5273050" y="1838326"/>
+          <a:chExt cx="413376" cy="209549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="251" name="正方形/長方形 250">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC5288D-02B6-4CC2-899F-4FC662E8E907}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5286375" y="1838326"/>
+            <a:ext cx="390526" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>104</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="252" name="正方形/長方形 251">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D840ACDD-21ED-414D-B9D5-6CB89239EE6D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5273050" y="1839157"/>
+            <a:ext cx="70477" cy="208713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="253" name="正方形/長方形 252">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392BE476-E0EF-42BE-8A7D-C5B9621092B3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5615950" y="1839157"/>
+            <a:ext cx="70476" cy="208713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160019</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="255" name="正方形/長方形 254">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFC996C-1C8C-4885-BC00-0E398B22BEA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3661410" y="6396989"/>
+          <a:ext cx="380999" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>48224</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>247054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>218483</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>56556</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="256" name="グループ化 255">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B03D82-0481-41C3-A0D2-CE3EE4D2455A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4800603" y="6924675"/>
+          <a:ext cx="381002" cy="170259"/>
+          <a:chOff x="3948111" y="5053012"/>
+          <a:chExt cx="381002" cy="170259"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="261" name="グループ化 260">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39ED0F81-6C34-4273-A5B3-1651414136CD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3948111" y="5053012"/>
+            <a:ext cx="381002" cy="170259"/>
+            <a:chOff x="5273050" y="1838326"/>
+            <a:chExt cx="392524" cy="209549"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="263" name="正方形/長方形 262">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00AAF31C-7E5C-4A9C-974A-115EBDBFAA9B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5331929" y="1838326"/>
+              <a:ext cx="284573" cy="209549"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="264" name="正方形/長方形 263">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892FDCEE-ECF3-4AB0-B477-638E16E79B3B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5273050" y="1908664"/>
+              <a:ext cx="58879" cy="76200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="269" name="正方形/長方形 268">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546471C9-4BB3-47FA-9AD1-EE05F90D9A62}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5615951" y="1908663"/>
+              <a:ext cx="49623" cy="76200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="262" name="正方形/長方形 261">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40FF5C03-C1E0-41E9-8E05-8C9CC05B88F9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4038604" y="5053013"/>
+            <a:ext cx="47621" cy="166687"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57152</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>227411</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="270" name="グループ化 269">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199F10D7-E0A6-4160-A454-DE4EBC067856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4809531" y="6353771"/>
+          <a:ext cx="381002" cy="170259"/>
+          <a:chOff x="3948111" y="5053012"/>
+          <a:chExt cx="381002" cy="170259"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="271" name="グループ化 270">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B3A510-1449-47F4-847F-1C54840D0177}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3948111" y="5053012"/>
+            <a:ext cx="381002" cy="170259"/>
+            <a:chOff x="5273050" y="1838326"/>
+            <a:chExt cx="392524" cy="209549"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="273" name="正方形/長方形 272">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBEF47D-C714-475B-8515-FAD9A12732F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5331929" y="1838326"/>
+              <a:ext cx="284573" cy="209549"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="274" name="正方形/長方形 273">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{158BCE04-6A3E-4323-A5C9-C2B950B5A6D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5273050" y="1908664"/>
+              <a:ext cx="58879" cy="76200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="275" name="正方形/長方形 274">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27170127-AC60-4BB7-B24F-95A5E9DFFD5F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5615951" y="1908663"/>
+              <a:ext cx="49623" cy="76200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="272" name="正方形/長方形 271">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF6552F-BFDD-4DF1-AC0C-19333BB5F306}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4038604" y="5053013"/>
+            <a:ext cx="47621" cy="166687"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57153</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>227412</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="276" name="グループ化 275">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A46DD8DF-5614-4608-8EA4-32AD29777C13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4809532" y="5772746"/>
+          <a:ext cx="381002" cy="170259"/>
+          <a:chOff x="3948111" y="5053012"/>
+          <a:chExt cx="381002" cy="170259"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="277" name="グループ化 276">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286983F4-7553-44F9-8935-8D9709AF22ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3948111" y="5053012"/>
+            <a:ext cx="381002" cy="170259"/>
+            <a:chOff x="5273050" y="1838326"/>
+            <a:chExt cx="392524" cy="209549"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="279" name="正方形/長方形 278">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2895355-252F-4D90-A203-BB3E52F99912}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5331929" y="1838326"/>
+              <a:ext cx="284573" cy="209549"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="280" name="正方形/長方形 279">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB69808-DE2E-4A89-85BE-58CD600D24C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5273050" y="1908664"/>
+              <a:ext cx="58879" cy="76200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="281" name="正方形/長方形 280">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7373CF79-27B8-4CA9-8F9D-B9EE82ABCC58}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5615951" y="1908663"/>
+              <a:ext cx="49623" cy="76200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="278" name="正方形/長方形 277">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D95B1A3-81E2-406D-9119-8A5E8B6F5ED4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4038604" y="5053013"/>
+            <a:ext cx="47621" cy="166687"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>146686</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>281940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>41909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="282" name="正方形/長方形 281">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C441EC83-D57F-44A4-AEF8-2BEFF38F51BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2718436" y="5425440"/>
+          <a:ext cx="2186939" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="FF0000"/>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FF0000"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>58342</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>217884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="284" name="グループ化 283">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5F0AF3-4EC7-4A65-AE96-6C606E4D7820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4800601" y="2905125"/>
+          <a:ext cx="401242" cy="170259"/>
+          <a:chOff x="5273050" y="1838326"/>
+          <a:chExt cx="413376" cy="209549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="285" name="正方形/長方形 284">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1AC5F63-EC4E-4B4A-AF0D-7301AD330193}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5286375" y="1838326"/>
+            <a:ext cx="390526" cy="209549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>471</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="286" name="正方形/長方形 285">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7DA0D3-756A-448A-919B-8DF3566A3877}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5273050" y="1839157"/>
+            <a:ext cx="70477" cy="208713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="287" name="正方形/長方形 286">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4886ED02-1651-429E-9537-E4C2200323C9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5615950" y="1839157"/>
+            <a:ext cx="70476" cy="208713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160021</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142883</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="288" name="正方形/長方形 287">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6DA750-B492-481E-B531-DCED0011EB15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3285170" y="5554032"/>
+          <a:ext cx="1133483" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
